--- a/eda/vlsp2016/train/column-3-analyze.xlsx
+++ b/eda/vlsp2016/train/column-3-analyze.xlsx
@@ -19,55 +19,55 @@
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>0</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-LOC</t>
   </si>
   <si>
-    <t>NNP, N, Ny, M, Nb, Nc, Pp, V, NPP, CH</t>
-  </si>
-  <si>
     <t>B-NP, I-NP</t>
   </si>
   <si>
-    <t>VN, Mỹ, xã, Hà Nội, huyện, đường, miền, TP., Lào, Việt</t>
+    <t>Np, N, Ny, M, FW, Nc, V, CH</t>
+  </si>
+  <si>
+    <t>VN, Mỹ, xã, Hà Nội, huyện, đường, miền, Lào, TP., Việt</t>
   </si>
   <si>
     <t>B-MISC</t>
   </si>
   <si>
-    <t>N, Ns, NNP</t>
-  </si>
-  <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>người, tiếng, Người, Mỹ, VN, Campuchia, Tiếng, Hoa, Nhật</t>
+    <t>N, Nc, Np</t>
+  </si>
+  <si>
+    <t>người, tiếng, Người, Mỹ, Campuchia, Hoa, Tiếng, Nhật, VN</t>
   </si>
   <si>
     <t>B-ORG</t>
   </si>
   <si>
-    <t>N, NNP, Ny, Nc, NNPY, FW, Nu, V, I-NP, CH</t>
-  </si>
-  <si>
-    <t>Công ty, Trường, Bộ, UBND, Trung tâm, Tuổi Trẻ, báo, Sở, Hội, ĐH</t>
+    <t>N, Np, Ny, Nc, FW, V, CH, Nu</t>
+  </si>
+  <si>
+    <t>Công ty, Trường, Bộ, UBND, Trung tâm, Tuổi Trẻ, Sở, báo, Hội, Đảng</t>
   </si>
   <si>
     <t>B-PER</t>
   </si>
   <si>
-    <t>NNP, Ny, N, CH, V, Nc, A, Ns, P</t>
+    <t>Np, Ny, N, CH, V, Nc, P, A</t>
   </si>
   <si>
     <t>Nguyễn, Hùng, Hải, Hoàng, Chương, Tùng, Hiếu, Tuấn, Trần, Kim</t>
@@ -76,58 +76,58 @@
     <t>I-LOC</t>
   </si>
   <si>
-    <t>NNP, M, N, CH, Ni, Nb, Ny, A, V, NPP</t>
-  </si>
-  <si>
     <t>I-NP, B-NP, I-AP, I-VP</t>
   </si>
   <si>
-    <t>HCM, Nam, 2, Nguyễn, Bắc, 1, Đông, 5, Hải Vân, -</t>
+    <t>Np, M, N, CH, FW, Ny, A, V</t>
+  </si>
+  <si>
+    <t>HCM, Nam, 2, Nguyễn, Bắc, 1, 5, Đông, Hải Vân, -</t>
   </si>
   <si>
     <t>I-MISC</t>
   </si>
   <si>
-    <t>NNP, Ny, CH, N, Ns</t>
-  </si>
-  <si>
     <t>I-NP, B-NP</t>
   </si>
   <si>
+    <t>Np, Ny, CH, Nc, N</t>
+  </si>
+  <si>
     <t>Việt, Anh, VN, Mỹ, ĐL, Nhật, Thái, Lào, Pháp, Campuchia</t>
   </si>
   <si>
     <t>I-ORG</t>
   </si>
   <si>
-    <t>NNP, N, Ny, V, CH, M, A, Cc, E, L</t>
-  </si>
-  <si>
-    <t>I-NP, I-VP, B-NP, I-RP, O</t>
-  </si>
-  <si>
-    <t>-, HCM, tỉnh, &amp;, TP., VN, huyện, xã, Hà Nội, Tuổi Trẻ</t>
+    <t>I-NP, I-VP, B-NP, O</t>
+  </si>
+  <si>
+    <t>Np, N, Ny, V, CH, M, A, C, E, FW</t>
+  </si>
+  <si>
+    <t>-, HCM, tỉnh, TP., &amp;, VN, huyện, xã, Hà Nội, Tuổi Trẻ</t>
   </si>
   <si>
     <t>I-PER</t>
   </si>
   <si>
-    <t>NNP, CH, N, A, V, FW, Ny, Nb, M</t>
-  </si>
-  <si>
     <t>I-NP, B-NP, O, I-AP</t>
   </si>
   <si>
-    <t>Văn, Thị, Anh, ", Minh, Trung, Hiếu, Thanh, Trâm, Thành</t>
+    <t>Np, CH, N, A, V, FW, Ny, M</t>
+  </si>
+  <si>
+    <t>Văn, Thị, Anh, Minh, ", Trung, Hiếu, Thanh, Trâm, Thành</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>N, V, CH, R, E, A, P, M, C, Ns</t>
-  </si>
-  <si>
-    <t>B-NP, O, B-VP, B-PP, B-AP, B-IP, I-NP, B-NPb, B-MP, B-VPb</t>
+    <t>B-NP, O, B-VP, B-PP, B-AP, I-NP, I-AP</t>
+  </si>
+  <si>
+    <t>N, V, CH, R, E, A, P, C, M, Nc</t>
   </si>
   <si>
     <t>,, ., ", của, là, một, có, và, được, không</t>
@@ -514,11 +514,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>5737</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -531,11 +531,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
         <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,16 +543,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>1057</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,16 +560,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
         <v>6731</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -582,11 +582,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
         <v>2555</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -599,11 +599,11 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
         <v>247</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -616,11 +616,11 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
         <v>1841</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -633,11 +633,11 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="n">
         <v>3173</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -650,11 +650,11 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
         <v>304095</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
